--- a/10-conditionally-formatted-plots/10-conditionally-format-scatterplot-solution.xlsx
+++ b/10-conditionally-formatted-plots/10-conditionally-format-scatterplot-solution.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\10-conditionally-formatted-plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C22A7C65-BF05-4D42-BA3F-B0CFB01A53BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0ABC533-424A-4EDF-817A-2E393EC22414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="penguins" sheetId="1" r:id="rId1"/>
+    <sheet name="10-conditional-scatterplot" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -770,7 +770,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="penguins!I3"/>
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="'10-conditional-scatterplot'!I3"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
